--- a/data/line/filtered_europe_2014_edit.xlsx
+++ b/data/line/filtered_europe_2014_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentnewintiedumy-my.sharepoint.com/personal/j22038527_student_newinti_edu_my/Documents/Desktop/courses_s2/COS30045_DATA_VISUALISATION/COS30045_DATA_VISUALISATION_PROJECT_1/data/line/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{D986D3E2-7F2B-4CB5-984B-4CBEE472991A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B0602B6-3149-494B-898E-8618031A24D6}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{D986D3E2-7F2B-4CB5-984B-4CBEE472991A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FB9BB69-418A-4C9E-AFA3-C0FD0C8B5843}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9BCCDFD7-5DB7-496E-9A9F-5AF656E07684}"/>
+    <workbookView xWindow="-96" yWindow="6120" windowWidth="11712" windowHeight="6216" activeTab="4" xr2:uid="{9BCCDFD7-5DB7-496E-9A9F-5AF656E07684}"/>
   </bookViews>
   <sheets>
     <sheet name="eastern" sheetId="2" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2788223B-F048-42EF-9A65-83F8FB1479C4}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,6 +896,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -904,7 +905,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1247,7 +1248,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1688,7 +1689,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1926,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BB17AB-A2B5-4313-9550-3C4945C8C1F5}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
